--- a/arquivos/xlsx/1p4rs.xlsx
+++ b/arquivos/xlsx/1p4rs.xlsx
@@ -481,32 +481,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Qual é a diferença básica entre a fórmula da água e a fórmula da água oxigenada?</t>
+          <t xml:space="preserve">
+Qual a formula da agua
+</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">	A popularmente conhecida água oxigenada nada mais é do que peróxido de hidrogênio (H2O2). Este composto químico é extremamente poderoso e tem diversos usos. Trataremos aqui fundamentalmente dos usos da água oxigenada de 10 volumes, tais como clareamento, limpeza e etc., veremos também o que é e como funciona.</t>
+          <t>A formula da água é h2O</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">	É conhecida água oxigenada nada mais é do que peróxido de hidrogênio (H2O2). Este composto químico é extremamente poderoso e tem diversos usos. Trataremos aqui fundamentalmente dos usos da água oxigenada de 10 volumes, tais como clareamento, limpeza e etc, veremos também o que é e como funciona.</t>
+          <t>A formula da água é o H2O...dois átomos de hidrogênio e um de oxigênio..</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">	A fórmula da água no estado sólido é diferente da fórmula da água no estado líquido?</t>
+          <t xml:space="preserve">
+Qual. A. Formula. Química. Da. Agua
+</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">	A fórmula se refere à composição da substância, em quaisquer dos estados físicos,portanto, a fórmula da água no estado sólido continua a ser H2O.</t>
+          <t>A formula química da água é o H2O que significa duas moléculas de hidrogênio e uma de oxigênio .Espero ter ajudado !Qualquer duvida pergunte</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Não. Continua sendo h2o da mesma forma.</t>
+          <t>Bom dia Sirlei.A água é composta por 2 átomos de hidrogênio e um átomo de oxigênio.Fórmula molecular:H2O Espero ter ajudado.Esse 2 ele é sobrescrito, ou seja, quando for escrever, ele fica abaixo do elemento.Abçs.</t>
         </is>
       </c>
     </row>
@@ -521,72 +525,51 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Resumo sobre a segunda guerra mundial ?
-O que deu inicio a segunda guerra mundial?
-Quando começou e quando terminou a segunda guerra mundial?</t>
+          <t xml:space="preserve">
+Resumo da segunda guerra mundial.
+</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tudo começou com o acordo de não agressão entre a Alemanha e a Urss (RUS), aonde decidiam quando e como invadiriam a Polonia (Porquê a polônia? pois era aonde tinha os "maiores" campos de concentração de judeus).Porém o marco do início da segunda guerra foi a rapida e ofensiva vitória nazista, aonde o Hittler (ALE) testou o seu "experimento" que era a guerra-relâmpago, aonde usava aviões e tanques e fazendo com que o inimigo nao conseguisse se defender. A guerra começou em 1939 e terminou em 1945</t>
+          <t>A Segunda Guerra Mundial começou em 1939, com a invasão da Polônia por parte das forças da Alemanha Nazista, e acabou com a rendição japonesa, após os ataques nucleares dos americanos.
+Teve dois grandes "lados", o Eixo, composto pela Itália Fascista, a Alemanha Nazista (ou Terceiro Império Alemão) e o Império Japonês (que contavam, além disto, com simpatizantes nazistas em diversos países da Europa Oriental) e os Países Aliados, que tinham entre seus principais representantes a União Soviética, os Estados Unidos, a Inglaterra e a França.
+Foi um conflito extremamente violento e mortal, tendo deixado mais de 60 milhões de mortos e destruído a infraestrutura econômica de boa parte da Europa Oriental, sendo também o palco de terríveis violações de Direitos Humanos, como, por exemplo, a execução de seis milhões de judeus no Holocausto.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Não houve segunda resposta da 1° pergunta similar</t>
+          <t>Resposta:
+Explicação:
+A Segunda Guerra Mundial começou em 1939, com a invasão da Polônia por parte das forças da Alemanha Nazista, e acabou com a rendição japonesa, após os ataques nucleares dos americanos.
+Teve dois grandes "lados", o Eixo, composto pela Itália Fascista, a Alemanha Nazista (ou Terceiro Império Alemão) e o Império Japonês (que contavam, além disto, com simpatizantes nazistas em diversos países da Europa Oriental) e os Países Aliados, que tinham entre seus principais representantes a União Soviética, os Estados Unidos, a Inglaterra e a França.
+Foi um conflito extremamente violento e mortal, tendo deixado mais de 60 milhões de mortos e destruído a infraestrutura econômica de boa parte da Europa Oriental, sendo também o palco de terríveis violações de Direitos Humanos, como, por exemplo, a execução de seis milhões de judeus no Holocausto.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Questionário sobre segunda guerra mundial
-1-causas da segunda Guerra Mundial
-2-Fator que deu início á segunda Guerra Mundial
-3-Fases da segunda Guerra Mundial
-4-Conflitos da segunda Guerra Mundial
-5-Principais acontecimentos da segunda Guerra Mundial
-6-Antissemitismo
-7-Campos de concentração
-8-Holocausto
-9-Bombardeio nuclear
-10-Participação do Brasil na segunda Guerra Mundial
-11-O fim da segunda Guerra Mundial
-12-Consequências da segunda Guerra Mundial
-Comente cada um dos 12 exercícios de forma discursiva!</t>
+          <t xml:space="preserve">
+Eu preciso de um resumo da segunda guerra mundial e o que fez a causa lá ​
+</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1 - teve como grande causa o expansionismo e o militarismo da Alemanha Nazista.
-2 - O estopim que deu início à Segunda Guerra Mundial foi a invasão da Polônia pelo exército da Alemanha.
-3 - a fase da supremacia alemã, a fase em que as forças estavam equilibradas e a fase que marcou a derrota do Eixo.
-4 - França e Inglaterra se posicionaram contra o governo da Alemanha e declararam guerra ao país. O conflito dividiu o mundo em dois grupos: O Eixo composto pelos países da Alemanha, Itália e Japão e os Aliados eram a Inglaterra, União Soviética (URSS), França e Estados Unidos.
-5 - 1940: França e Alemanha acertam cessar-fogo na 2ª Guerra.
-1945: Capitulação da Alemanha na 2ª Guerra.
-1943: Goebbels declara guerra total.
-1941: Aliança entre Londres e Moscou contra Alemanha nazista.
-1942: Anne Frank inicia seu diário.
-1945: Mulheres começam a reconstruir Berlim após a guerra.
-6 - De forma genérica, as manifestações de hostilidade contra judeus desde os tempos greco-romanos até os dias de hoje.
-7 - Campo de concentração é um centro de confinamento militar, instalado em área de terreno livre e cercada por telas de arame farpado ou algum outro tipo de barreira, cujo perímetro é permanentemente vigiado, para suster prisioneiros de guerra e/ou prisioneiros políticos.
-8 - O extermínio em massa de cerca de seis milhões de judeus pelos nazistas na Segunda Guerra Mundial.
-9 - Os bombardeamentos atômicos das cidades de Hiroshima e Nagasaki foram dois bombardeios realizados pelos Estados Unidos contra o Império do Japão durante os estágios finais da Segunda Guerra Mundial, em agosto de 1945
-10 - O Brasil passou a participar do conflito a partir de 1942. ... A princípio, a posição brasileira foi de neutralidade. Depois de alguns ataques a navios brasileiros, Getúlio Vargas decidiu entrar em acordo com o presidente americano Roosevelt para a participação do país na Guerra.
-11 - Há duas datas que marcam o fim da Segunda Guerra Mundial: 8 de maio de 1945, na Europa, pela queda da Alemanha Nazista; e 2 de setembro do mesmo ano, na Ásia, com a rendição do Japão após as bombas atômicas.
-12 - A Segunda Guerra Mundial, ocorrida entre 1939 e 1945, deixou milhares de mortos, incontáveis feridos e redefiniu o equilíbrio de poder mundial. As principais consequências deste conflito foram a ascensão dos Estados Unidos, a divisão do mundo entre capitalismo e socialismo e o surgimento da ONU.</t>
+          <t>SEGUNDA GUERRA MUNDIAL=resumo           
+A Segunda Guerra Mundial foi o maior conflito da humanidade, acontecendo de 1939 a 1945, em diferentes locais da Oceania, Ásia, África e Europa. Esse conflito foi travado entre Aliados (Reino Unido, França, EUA, URSS etc.) e Eixo (Itália, Alemanha, Japão etc.) e teve como consequências a morte de, aproximadamente, 60 milhões de pessoas e uma destruição material significativa.  
+A Segunda Guerra Mundial teve como causa direta o expansionismo da Alemanha nazista ao longo da década de 1930. O estopim para o conflito deu-se com a invasão da Polônia realizada pelos alemães, em setembro de 1939. A Segunda Guerra Mundial ficou marcada pelos horrores do Holocausto e do lançamento das bombas atômicas.                                       
+       Momentos marcantes
+A Segunda Guerra Mundial foi um conflito extenso, marcado por uma infinidade de acontecimentos e muitas reviravoltas. Como mencionado, a guerra iniciou-se com a invasão da Polônia, em setembro de 1939. O território polonês foi conquistado pelos germânicos em poucas semanas e foi dividido entre alemães e soviéticos por conta de uma cláusula do Tratado de Não-Agressão. Vejamos os principais acontecimentos.
+Blitzkrieg
+De 1939 a 1940, houve um período de pouca ação conhecido como Guerra de Mentira. A partir de 1940, os alemães iniciaram suas ofensivas pela Europa e conquistaram Noruega, Dinamarca, Bélgica, Holanda, França, Iugoslávia, Grécia etc. As grandes conquistas alemãs deixaram o Alto Comando nazista entusiasmado com a capacidade de guerra do país.
+Esses avanços só foram possíveis por causa da blitzkrieg, uma tática de guerra inovadora para a época e que coordenava ataques múltiplos de diversas forças do exército alemão. Movido pelo sucesso da blitzkrieg, Adolf Hitler ordenou a realização de um ataque contra a União Soviética. Esse acontecimento mudou o destino da Segunda Guerra Mundial.
+Invasão da União Soviética
+Em 2 de setembro de 1945, os japoneses assinaram a rendição e colocaram fim na Segunda Guerra Mundial.   ESPERO TER AJUDADO!!!</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1 - teve como grande causa o expansionismo e o militarismo da Alemanha Nazista.
-2 - O estopim que deu início à Segunda Guerra Mundial foi a invasão da Polônia pelo exército da Alemanha.
-3 - a fase da supremacia alemã, a fase em que as forças estavam equilibradas e a fase que marcou a derrota do Eixo.
-4 - França e Inglaterra se posicionaram contra o governo da Alemanha e declararam guerra ao país. O conflito dividiu o mundo em dois grupos: O Eixo composto pelos países da Alemanha, Itália e Japão e os Aliados eram a Inglaterra, União Soviética (URSS), França e Estados Unidos.
-5 - 1940: França e Alemanha acertam cessar-fogo na 2ª Guerra.
-1945: Capitulação da Alemanha na 2ª Guerra.
-1943: Goebbels declara guerra total.
-1941: Aliança entre Londres e Moscou contra Alemanha nazista.
-1942: Anne Frank inicia seu diário.
-1945: Mulheres começam a reconstruir Berlim após a guerra.</t>
+          <t>Falando sobre o que?</t>
         </is>
       </c>
     </row>
@@ -601,61 +584,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Quantos ossos o corpo humano tem? Qual o maior osso do corpo humano?</t>
+          <t xml:space="preserve">
+Quantos ossos tem o corpo humano?​
+</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Resposta:
-Segundo Tirapelli, o esqueleto humano é constituído por 206 ossos considerados constantes. Fêmur é osso mais longo do corpo humano. É responsável por formar a coxa.</t>
+O esqueleto humano é uma estrutura formada por vários ossos e cartilagens, que permitem, entre várias outras funções, a movimentação do nosso corpo. O esqueleto humano é um tipo de endoesqueleto, uma vez que se encontra no interior do nosso corpo, sendo formado por mais de 200 ossos.
+espero ter ajudado!</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Resposta:
-sao 206 osso.
-e o fêmur e o maior osso e é responsável por forma a coxa</t>
+206 ossos em um corpo humano adulto , 
+mas uma criança recém nascida tem aproximadamente 305
+Explicação:
+Espero ter ajudado</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Atividade: OSSOS DO CORPO HUMANO
-*Como são Divididos os Ossos do Corpo Humano?
-*Quantos Ossos tem um Corpo Humano?
-*Como são os Ossos?
-*Qual é o Menor Osso do Corpo Humano?
-*Qual é o Maior Osso do Corpo Humano?
-*Quais são as 5 Funções do Esqueleto Humano?
-*Como são Classificados os Ossos?
-*Qual é o Osso mais Resistente do Corpo Humano?
-*Referências (Fonte de Pesquisa).</t>
+          <t xml:space="preserve">
+Quantos ossos tem o corpo humano?
+</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Resposta:
-como são dividos os ossos do corpo humano?
-resposta: Os 206 ossos de um adulto estão distribuídos da seguinte forma: 64 ossos nos membros superiores (incluindo a cintura escapular), 62 ossos nos membros inferiores (incluindo a cintura pélvica), 28 ossos no crânio, 26 ossos na coluna, 24 costelas, 1 osso hioide e 1 esterno
-Quantos Ossos tem um Corpo Humano?
-resposta:206 Ossos
-Como são os Ossos?é uma estrutura formada por tecido ósseo, um tipo de tecido conjuntivo muito rígido caracterizado pela presença de cálcio, fibras de colágeno e proteoglicanas
-Qual é o Menor Osso do Corpo Humano?
-resposta:O estribo( osso do ouvido)
-*Qual é o Maior Osso do Corpo Humano?
-resposta: Fêmur( se localiza na coxa
-*Quais são as 5 Funções do Esqueleto Humano?
-resposta"sustentação do corpo, proteção dos órgãos internos, reserva de sais minerais e produção de células sanguíneas.
-*Como são Classificados os Ossos?
-resposta:os ossos são classificados em cinco principais tipos: longos, curtos, planos, irregulares e sesamoides.
-*Qual é o Osso mais Resistente do Corpo Humano?
-resposta:O fêmur
-Explicação:
-bons estudos e tenham uma boa tarde/ dia/ noite ❤️</t>
+          <t>No total, tem 206 ossos, porém os bebês podem ter em torno de 300 e 350 ossos no nascimento.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Não houve segunda resposta da 2° pergunta similar</t>
+          <t>O corpo de um adulto tem 206 ossos. No entanto nascemos com 270 ossos sendo que, com o crescimento, alguns se juntam ficando apenas um osso com os 206 ossos.</t>
         </is>
       </c>
     </row>
@@ -670,40 +634,60 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>As Revoluções da modernidade são? 
-A) Revolução Francesa e Industrial.
-B) Revolução Francesa e mecânica.
-C) Revolução Francesa e social.
-D) Revolução Francesa e Imperial.</t>
+          <t xml:space="preserve">
+Explique o que foi a revolucao francesa
+</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>A Revolução Francesa foi um período de intensa agitação política e social n a França, que teve um impacto duradouro na história do país e, mais amplamente, em todo continente Europeu.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Resposta:
-a) Revolução Francesa e industrial</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Resposta : A)Revolução Francesa e Industrial.  
-A Revolução Industrial foi considerada pelos historiadores como um período de grande avanço tecnológico, que ocorreu na segunda metade do século XVIII e que permitiu o desenvolvimento da indústria moderna.</t>
+Foi a insatisfação das pessoas com o governo de Luís XVI, e muitas pessoas como os burgueses e os demais membros do terceiro estado, passaram a exigir mudanças na organização social e econômica do estado.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A Revolução Francesa acabou com o antigo Regime”. Mediante a essa afirmação, O que foi a Revolução Francesa? Quais suas características? Qual o objetivo da Revolução Francesa? Onde ocorreu a Revolução Francesa?</t>
+          <t xml:space="preserve">
+O que foi a Revolução Francesa? Quais foram as principais consequências desse movimento?​
+</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>A Revolução Francesa marca o momento de transição da Idade Moderna para a Idade Contemporânea. Como o próprio nome já diz, a Revolução ocorreu na França, que acabou sendo o primeiro país a acabar com o Antigo Regime e dando o poder ao 3º estado. Essa revolução acabou inspirando outros países na Europa a acabar com o absolutismo e o mercantilismo, por exemplo.</t>
+          <t>A Revolução Francesa foi um dos principais eventos da história mundial, dando os parâmetros para a organização de diversos países após o século XIX. ... A importância da Revolução Francesa é tamanha que os historiadores a utilizam para marcar o fim da Idade Moderna e o início da Idade Contemporânea.
+Consequências: melhorou em geral o padrão de vida da população, e teve uma queda do absolutismo, e expansão do capitalismo, mas também veio o atraso econômico.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>Resposta:
-A Revolução Francesa marca o momento de transição da Idade Moderna para a Idade Contemporânea. Como o próprio nome já diz, a Revolução ocorreu na França, que acabou sendo o primeiro país a acabar com o Antigo Regime e dando o poder ao 3º estado. Essa revolução acabou inspirando outros países na Europa a acabar com o absolutismo e o mercantilismo, por exemplo
-Explicação:</t>
+O que foi a Revolução Francesa?
+Esse foi um evento liderado pelos franceses, sendo um marco na história mundial, ocorrido durante o século XVIII (1789 – 1799). A revolução levou à queda do Absolutismo francês e teve relevantes consequência para o ocidente no geral.
+A relevância da Revolução Francesa é tão grande, que os próprios historiadores a utilizam como marco do fim da Idade Moderna, dando início à Idade Contemporânea.
+Durante esse período, intensas transformações ocorreram nas esferas social, econômica e principalmente política. A revolução foi responsável por reconfigurar totalmente as estruturas de poder, dando destaque à conquista da classe burguesa, que já se desenvolvia naquele continente desde o final da Idade Média.
+O fator determinante que inaugurou esse período da história é conhecido como a queda da Bastilha (14/07/1789). Essa era uma importante prisão de Paris, para onde eram levadas as pessoas condenadas por atos políticos que contrariavam o domínio absolutista francês.
+No momento em que a Bastilha foi tomada, determinou-se o enfraquecimento do controle político consolidado pelos reis franceses. Esse foi um dos símbolos de maior destaque desse processo revolucionário.
+Por meio dessa revolução do século XVIII, que a forma de governo conhecida atualmente como República foi difundida para o mundo. Nesse contexto, surgiram as divisões de poderes políticos entre legislativo, judiciário e executivo.
+Causas e características da Revolução Francesa
+Diversos fatores que possibilitaram esse acontecimento histórico estavam incutidos na França durante o século XVIII. Nessa época, os burgueses estavam preocupados em industrializar o país, mas barreiras que restringiam a liberdade do comércio internacional impossibilitavam essa ascensão. Dessa maneira, era necessário para a burguesia que o país adotasse o liberalismo econômico.
+Essa classe social também estava cansada de opressões por parte dos monarcas absolutistas e exigiam seus direitos políticos. Uma vez que eles sustentavam o estado e que a nobreza estava isenta de pagar impostos, todo esse clima gerou grande tensão de ambos os lados.
+Mesmo que os burgueses fossem a economicamente dominantes, politicamente e judicialmente eles possuíam um poder muito limitado, isso em função da existência dos Primeiro e Segundo Estados.
+Revolução Francesa e Iluminismo
+A ideologia iluminista surgiu na França nessa época, propagando-se entre a classe burguesa. Esse foi um dos fatores que fortaleceram a revolução.
+Duras críticas às práticas econômicas mercantilistas, ao absolutismo e aos direitos concedidos ao clero eram feitas por parte desse movimento ideológico.
+Podemos citar como autores famosos que influenciaram diretamente esse processo:
+Voltaire;
+Montesquieu;
+Rousseau;
+Diderot;
+Adam Smith.
+Explicação:
+espero ter ajudado bons estudos</t>
         </is>
       </c>
     </row>
@@ -718,50 +702,47 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sobre a guerra fria responda:
-1) O que foi a guerra fria?
-2) Quem eram os países rivais na guerra fria?
-3) Quando teve início a guerra fria?
-4) Quando terminou a guerra fria?</t>
+          <t xml:space="preserve">
+O que foi a Guerra Fria?
+</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Explicação:
-Guerra Fria (2) - O que estava em jogo no conflito entre EUA e URSS. Durante a Segunda Guerra Mundial, os Estados Unidos e a União Soviética foram aliados na luta contra a Alemanha nazista.</t>
+          <t>Basicamente, a Guerra Fria foi uma disputa ideológica entre Estados Unidos e União das Repúblicas Socialistas Soviéticas (URSS) que tinha o objetivo de implantar os sistemas econômicos Capitalismo e Socialismo, respectivamente. 
+A Guerra Fria durou 46 anos (de 1945 até 1991).
+Para você entender mais:
+Estados Unidos -  era defensor do Capitalismo. Este país era detentor das hegemonias financeira e militar (o que foi mostrado depois da segunda guerra mundial), o que atraiu outros países para a defesa do sistema econômico citado. 
+Rússia (líder da União das Repúblicas Socialistas Soviéticas) - era defensora do Socialismo. Os grandes aliados da Rússia estavam no Leste Europeu. 
+No final dos anos 1990, por conta da crescente luta pela democratização dos países do Leste Europeu, a onda socialista pregada pela União Soviética foi ficando mais fraca. Em 1991, houve a dissolvição (ou rompimento) da União Soviética (URSS).
+Portanto, podemos compreender que, na disputa ideológica pregada durante a Guerra Fria, os Estados Unidos levaram a melhor e provaram que o Capitalismo era o sistema econômico capaz de mover o mundo e gerar riquezas.
+Espero ter contribuído!</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1)foi um período de tensão geopolítica entre a União Soviética e os Estados Unidos e seus respectivos aliados, o Bloco Oriental e o Bloco Ocidental, após a Segunda Guerra Mundial.
-2)Os dois grandes rivais na Guerra Fria eram a União Soviética e os Estados Unidos.
-3)1947
-4)1991</t>
+          <t>uma disputa pela superioridade mundial entre Estados Unidos e União Soviética após a Segunda Guerra Mundial (1939-1945). É chamada deGuerra Fria por ser uma intensa guerra econômica, diplomática e ideológica travada pela conquista de zonas de influência.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Guerra Fria: Causa, Características e consequências.
-Qual foi a causa da Guerra fria?
-Quais são as características da Guerra Fria?
-Quais foram as consequências da Guerra Fria ?</t>
+          <t xml:space="preserve">
+- EXPLIQUE O QUE FOI A GUERRA FRIA.
+</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>As causas foram que A União Soviética buscava implantar o socialismo em outros países para que pudessem expandir a igualdade social, baseado na economia planificada, partido único (Partido Comunista), igualdade social e falta de democracia. Enquanto os Estados Unidos, a outra potência mundial, defendia a expansão do sistema capitalista, baseado na economia de mercado, sistema democrático e propriedade privada.
-Quando a Segunda Guerra Mundial chegou ao fim, os Estados Unidos assumiam o posto de ser o país mais rico do mundo, porém, toda essa influência econômica foi disputada  com aquele que  era o segundo país com maior poder econômico do planeta, a URSS. Ambos possuíam formas de governo diferentes, e um não concordava com os métodos utilizados pelo outro. Enquanto os Estados Unidos sobreviviam de uma forma Capitalista, e defendia que o mundo deveria viver da mesma forma, se baseando na economia de mercado e na expansão de um sistema democrático, capitalista e de propriedade privada, a URSS era uma nação socialista, que se baseava em uma economia planificada, governada pelo Partido Comunista e sem democracia, características essas que muitas vezes desagradavam o próprio povo que vivia sobre essa forma de governo. Ambos discordavam da forma como o mundo deveria se reerguer depois da destruição causada pela segunda guerra.
-O fim da Guerra Fria e suas consequências
-No final da década de 1980 a falta de democracia e a crise existente nas repúblicas soviéticas traziam como principal consequência o fim do socialismo. A queda do muro de Berlim em 9 de novembro de 1989 e a unificação da Alemanha marcavam o fim da Guerra Fria. O capitalismo saia vitorioso e aos poucos ia sendo implantado nos países socialistas.</t>
+          <t>Resposta:
+A Guerra Fria foi resultado da rivalidade ideológica existente entre os Estados Unidos e a União Soviética.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Mais ou menos em 1950, após a derrota da Alemanha na segunda guerra mundial, o mundo estava dividido entre duas potências: União Soviética e Estados Unidos.
-Depois de tantas batalhas, a população estava aliviada com o fim da guerra. Porém, a rivalidade ainda não havia sido completamente desfeita!
-Graças ao armamento obsessivo de ambos os países, os governos estavam evitando ao máximo um confronto direto, porque se houvesse mais uma batalha sangrenta com tiros e bombas nucleares, provavelmente as duas potências teriam prejuízos enormes. Por isso, os combates eram somente ideológicos, com o objetivo de provar para o mundo qual era a potência mais poderosa.
-Desse jeito, a guerra começou com foco nas expedições aeroespaciais e na ciência. Essa foi a chamada Guerra Fria.
-Estados Unidos e União Soviética estavam em uma corrida contra o tempo para provar ao mundo quem conseguiria levar o homem a lua primeiro, e assim, os jornais ficaram lotados de manchetes sobre novas descobertas científicas e narrativas sobre a evolução das armas e das expedições.</t>
+          <t>Resposta:
+A guerra fria foi uma guerra ideológica, entre o socialismo e o capitalismo, especialmente entre a URSS e os EUA.
+Onde houve o financiamento de várias ditaduras, e divisão de países. 
+Ocorreu entre 1947 - 1991, após o fim da 2ª Guerra Mundial, iniciou-se através de projetos para ajudar os países afetados pelo pós-guerra, assim começou a disputa por territórios das duas potências, foi um período de diversos avanços tecnológicos, como a corrida espacial, e tecnologia bélica.</t>
         </is>
       </c>
     </row>
@@ -771,39 +752,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - Não</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - Acredite</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - Nas</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - Mentiras</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - Dele</t>
-        </is>
-      </c>
+          <t>hsajkdhsajkdkdasdsdhsdhkajd</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
